--- a/X_bp.xlsx
+++ b/X_bp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Соотношение матрица-наполнитель</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Потребление смолы, г/м2</t>
-  </si>
-  <si>
-    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -377,16 +374,11 @@
   </sheetPr>
   <dimension ref="A1:K1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
